--- a/Results/run_2015-01-13/Generalization.xlsx
+++ b/Results/run_2015-01-13/Generalization.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1820" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MountainCar" sheetId="1" r:id="rId1"/>
     <sheet name="Maze" sheetId="2" r:id="rId2"/>
     <sheet name="ActorCriticPendulum" sheetId="4" r:id="rId3"/>
+    <sheet name="PuddleWorld" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>avg</t>
   </si>
@@ -47,7 +48,10 @@
     <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_Maze/run_821643908689472/grn_122_-29.68.grn");</t>
   </si>
   <si>
-    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_ActorCriticPendulum/run_351995723965078/grn_149_2989.780138816969.grn");</t>
+    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_ActorCriticPendulum/run_351995723965078/grn_142_3066.5005810613216.grn");</t>
+  </si>
+  <si>
+    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_PuddleWorld/run_411352420423668/grn_127_1602.970000000023.grn");</t>
   </si>
 </sst>
 </file>
@@ -2789,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2800,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2708.03692214888</v>
+        <v>2649.6203517949298</v>
       </c>
       <c r="C1">
         <v>3488.9769663781699</v>
@@ -2814,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2359.49065288872</v>
+        <v>2587.9980230163001</v>
       </c>
       <c r="C2">
         <v>2023.9394327013399</v>
@@ -2831,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2187.8175881761499</v>
+        <v>2555.7293699215802</v>
       </c>
       <c r="C3">
         <v>1962.88621374537</v>
@@ -2841,7 +2845,7 @@
       </c>
       <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>2574.6433832348721</v>
+        <v>2535.1931082605829</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C:C)</f>
@@ -2853,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2656.4122516562702</v>
+        <v>2442.6850201078901</v>
       </c>
       <c r="C4">
         <v>3707.05472076053</v>
@@ -2863,7 +2867,7 @@
       </c>
       <c r="F4">
         <f>STDEV(B:B)</f>
-        <v>130.70383074753875</v>
+        <v>124.23520279273269</v>
       </c>
       <c r="G4">
         <f>STDEV(C:C)</f>
@@ -2875,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2348.49440665464</v>
+        <v>2547.8252672881699</v>
       </c>
       <c r="C5">
         <v>4338.4900232597001</v>
@@ -2885,7 +2889,7 @@
       </c>
       <c r="F5">
         <f>MIN(B:B)</f>
-        <v>2187.8175881761499</v>
+        <v>2105.5507014234399</v>
       </c>
       <c r="G5">
         <f>MIN(C:C)</f>
@@ -2897,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2636.3888442140201</v>
+        <v>2665.3410708074398</v>
       </c>
       <c r="C6">
         <v>3154.3332412720702</v>
@@ -2907,7 +2911,7 @@
       </c>
       <c r="F6">
         <f>MAX(B:B)</f>
-        <v>2803.3185467071698</v>
+        <v>2736.9955980466798</v>
       </c>
       <c r="G6">
         <f>MAX(C:C)</f>
@@ -2919,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2727.4276802269301</v>
+        <v>2545.9415802702201</v>
       </c>
       <c r="C7">
         <v>3815.8592019419498</v>
@@ -2930,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2712.5489972820501</v>
+        <v>2711.8391976494299</v>
       </c>
       <c r="C8">
         <v>4444.6730889682603</v>
@@ -2941,7 +2945,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2645.1915394756002</v>
+        <v>2566.73999328434</v>
       </c>
       <c r="C9">
         <v>1219.5195370382801</v>
@@ -2952,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2650.9693662734999</v>
+        <v>2691.41257688007</v>
       </c>
       <c r="C10">
         <v>1977.39655834564</v>
@@ -2963,7 +2967,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2417.6981005221701</v>
+        <v>2549.0544936472802</v>
       </c>
       <c r="C11">
         <v>4075.8308275153599</v>
@@ -2974,7 +2978,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2575.6282561778398</v>
+        <v>2703.14115520003</v>
       </c>
       <c r="C12">
         <v>4229.8356602456497</v>
@@ -2985,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2293.7786432047201</v>
+        <v>2472.0990574624502</v>
       </c>
       <c r="C13">
         <v>2478.5074964025498</v>
@@ -2996,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2675.2327263090201</v>
+        <v>2733.4027505829699</v>
       </c>
       <c r="C14">
         <v>1897.21379970973</v>
@@ -3007,7 +3011,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2641.6593784501201</v>
+        <v>2590.8704889404598</v>
       </c>
       <c r="C15">
         <v>3807.7646038800999</v>
@@ -3018,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2688.14500747902</v>
+        <v>2718.3405709696799</v>
       </c>
       <c r="C16">
         <v>4320.37291677134</v>
@@ -3029,7 +3033,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2547.8390332076801</v>
+        <v>2539.7959843316198</v>
       </c>
       <c r="C17">
         <v>2439.00736253491</v>
@@ -3040,7 +3044,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2418.8792474845</v>
+        <v>2659.9870933810498</v>
       </c>
       <c r="C18">
         <v>3103.0910900788999</v>
@@ -3051,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2591.0865440837301</v>
+        <v>2609.5584328772902</v>
       </c>
       <c r="C19">
         <v>1398.6100302181901</v>
@@ -3062,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2556.9657251172298</v>
+        <v>2628.5226401045902</v>
       </c>
       <c r="C20">
         <v>3185.5061353548599</v>
@@ -3073,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2479.9202911761899</v>
+        <v>2677.4039026313499</v>
       </c>
       <c r="C21">
         <v>1832.3108663292701</v>
@@ -3084,7 +3088,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2403.6234204553298</v>
+        <v>2626.3030403133498</v>
       </c>
       <c r="C22">
         <v>2329.5806548463802</v>
@@ -3095,7 +3099,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2529.1325968054398</v>
+        <v>2395.1063490363399</v>
       </c>
       <c r="C23">
         <v>1042.9258975846401</v>
@@ -3106,7 +3110,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2579.29363479831</v>
+        <v>2590.47257436979</v>
       </c>
       <c r="C24">
         <v>2197.5673143047102</v>
@@ -3117,7 +3121,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2424.5313523139198</v>
+        <v>2431.6165065013602</v>
       </c>
       <c r="C25">
         <v>4305.7752097447701</v>
@@ -3128,7 +3132,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2689.0456010263001</v>
+        <v>2401.3185208242699</v>
       </c>
       <c r="C26">
         <v>4286.7190551683998</v>
@@ -3139,7 +3143,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2757.5517440263998</v>
+        <v>2631.6030190884899</v>
       </c>
       <c r="C27">
         <v>1016.59976730598</v>
@@ -3150,7 +3154,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2310.69056983977</v>
+        <v>2273.9215854835302</v>
       </c>
       <c r="C28">
         <v>3922.33289972391</v>
@@ -3161,7 +3165,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2595.4044157447302</v>
+        <v>2559.7693030758801</v>
       </c>
       <c r="C29">
         <v>3657.83235594392</v>
@@ -3172,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2750.0901413987299</v>
+        <v>2218.8133472269101</v>
       </c>
       <c r="C30">
         <v>4506.0793397534899</v>
@@ -3183,7 +3187,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2311.2406141216802</v>
+        <v>2656.0339321413699</v>
       </c>
       <c r="C31">
         <v>4146.3570163265504</v>
@@ -3194,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2579.9859336725299</v>
+        <v>2572.5930578934999</v>
       </c>
       <c r="C32">
         <v>4321.4784960344696</v>
@@ -3205,7 +3209,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2583.2774950118101</v>
+        <v>2480.3983488071299</v>
       </c>
       <c r="C33">
         <v>1749.26460930036</v>
@@ -3216,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2524.7168430101001</v>
+        <v>2450.0154413448699</v>
       </c>
       <c r="C34">
         <v>1969.0046586870899</v>
@@ -3227,7 +3231,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2392.6852754818201</v>
+        <v>2422.4884538534302</v>
       </c>
       <c r="C35">
         <v>4059.9588047068301</v>
@@ -3238,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2500.4734011374499</v>
+        <v>2481.0330343425599</v>
       </c>
       <c r="C36">
         <v>1827.7377242228699</v>
@@ -3249,7 +3253,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2712.9652829715401</v>
+        <v>2667.1563810276498</v>
       </c>
       <c r="C37">
         <v>2285.9550195655002</v>
@@ -3260,7 +3264,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2610.1675626060601</v>
+        <v>2611.5427174972401</v>
       </c>
       <c r="C38">
         <v>3638.94845614425</v>
@@ -3271,7 +3275,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2736.66617610088</v>
+        <v>2414.35720327851</v>
       </c>
       <c r="C39">
         <v>3014.8213317498198</v>
@@ -3282,7 +3286,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2655.5560799835698</v>
+        <v>2311.9457843100099</v>
       </c>
       <c r="C40">
         <v>1975.64003299773</v>
@@ -3293,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2450.3963986101098</v>
+        <v>2517.2742225818001</v>
       </c>
       <c r="C41">
         <v>1312.72325126698</v>
@@ -3304,7 +3308,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2627.97223926281</v>
+        <v>2542.3694992416599</v>
       </c>
       <c r="C42">
         <v>4242.9795925968701</v>
@@ -3315,7 +3319,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2572.63016218442</v>
+        <v>2643.3456118490199</v>
       </c>
       <c r="C43">
         <v>2389.8022697081401</v>
@@ -3326,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2794.1065147060599</v>
+        <v>2658.4120306344298</v>
       </c>
       <c r="C44">
         <v>4533.9373265455997</v>
@@ -3337,7 +3341,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2696.47206369388</v>
+        <v>2677.0563760550499</v>
       </c>
       <c r="C45">
         <v>2310.5912255827402</v>
@@ -3348,7 +3352,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2654.6820412462298</v>
+        <v>2550.8623798087401</v>
       </c>
       <c r="C46">
         <v>1113.24935876934</v>
@@ -3359,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2683.5087677216302</v>
+        <v>2604.654301775</v>
       </c>
       <c r="C47">
         <v>4249.0050609627497</v>
@@ -3370,7 +3374,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2599.4831767037499</v>
+        <v>2581.6729289382401</v>
       </c>
       <c r="C48">
         <v>1241.42840343998</v>
@@ -3381,7 +3385,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2456.7087331274802</v>
+        <v>2625.16935959179</v>
       </c>
       <c r="C49">
         <v>3743.8683465100999</v>
@@ -3392,7 +3396,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2630.9670731295</v>
+        <v>2685.23112094629</v>
       </c>
       <c r="C50">
         <v>4241.6063763520497</v>
@@ -3403,7 +3407,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2757.8964032803101</v>
+        <v>2105.5507014234399</v>
       </c>
       <c r="C51">
         <v>4513.4551784056302</v>
@@ -3414,7 +3418,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2690.7539538461601</v>
+        <v>2451.26999383049</v>
       </c>
       <c r="C52">
         <v>4020.31563938095</v>
@@ -3425,7 +3429,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2356.1629764449599</v>
+        <v>2327.89862967104</v>
       </c>
       <c r="C53">
         <v>4004.12363653185</v>
@@ -3436,7 +3440,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2729.7632386063301</v>
+        <v>2317.25751037379</v>
       </c>
       <c r="C54">
         <v>4015.10791483701</v>
@@ -3447,7 +3451,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2511.4442690013402</v>
+        <v>2505.3279591169398</v>
       </c>
       <c r="C55">
         <v>4162.2646019996</v>
@@ -3458,7 +3462,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2653.9139892593598</v>
+        <v>2497.4908185849199</v>
       </c>
       <c r="C56">
         <v>4200.7161869704696</v>
@@ -3469,7 +3473,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2590.7822813876701</v>
+        <v>2621.8513752037402</v>
       </c>
       <c r="C57">
         <v>4476.4400122862298</v>
@@ -3480,7 +3484,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2712.69185696147</v>
+        <v>2521.3606853054198</v>
       </c>
       <c r="C58">
         <v>4150.0991322948903</v>
@@ -3491,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2665.3582524352501</v>
+        <v>2736.9955980466798</v>
       </c>
       <c r="C59">
         <v>3578.9671436741801</v>
@@ -3502,7 +3506,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2627.07706548018</v>
+        <v>2426.4141884906498</v>
       </c>
       <c r="C60">
         <v>4113.2694904850096</v>
@@ -3513,7 +3517,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2661.9703333269399</v>
+        <v>2483.69163456672</v>
       </c>
       <c r="C61">
         <v>4328.4362230562001</v>
@@ -3524,7 +3528,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2653.4997736606201</v>
+        <v>2432.51535020949</v>
       </c>
       <c r="C62">
         <v>3849.36455292659</v>
@@ -3535,7 +3539,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2622.8388705525299</v>
+        <v>2602.1999120663399</v>
       </c>
       <c r="C63">
         <v>4179.1754415609203</v>
@@ -3546,7 +3550,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2618.1658344451698</v>
+        <v>2486.0661148520799</v>
       </c>
       <c r="C64">
         <v>3969.2791499785299</v>
@@ -3557,7 +3561,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2673.9274128485299</v>
+        <v>2712.74269226552</v>
       </c>
       <c r="C65">
         <v>1184.5554287913001</v>
@@ -3568,7 +3572,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2595.8613522474898</v>
+        <v>2502.9547476676998</v>
       </c>
       <c r="C66">
         <v>4560.6487754317004</v>
@@ -3579,7 +3583,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2621.6053665666</v>
+        <v>2394.9322101323</v>
       </c>
       <c r="C67">
         <v>1628.49277659523</v>
@@ -3590,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2605.2972680108001</v>
+        <v>2619.2898502759299</v>
       </c>
       <c r="C68">
         <v>3932.9265794891298</v>
@@ -3601,7 +3605,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2515.08378146937</v>
+        <v>2572.63467209499</v>
       </c>
       <c r="C69">
         <v>3439.1218718711698</v>
@@ -3612,7 +3616,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2549.07140291122</v>
+        <v>2514.7554931203399</v>
       </c>
       <c r="C70">
         <v>2672.2917909602402</v>
@@ -3623,7 +3627,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2574.4733167941399</v>
+        <v>2457.2760664437301</v>
       </c>
       <c r="C71">
         <v>4508.2064589653201</v>
@@ -3634,7 +3638,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2494.5909445428101</v>
+        <v>2649.27578446493</v>
       </c>
       <c r="C72">
         <v>1950.10066128987</v>
@@ -3645,7 +3649,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2520.1199421486099</v>
+        <v>2412.4215297045798</v>
       </c>
       <c r="C73">
         <v>3002.6648557906801</v>
@@ -3656,7 +3660,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2494.16728140544</v>
+        <v>2453.2972660106602</v>
       </c>
       <c r="C74">
         <v>4300.4836518100401</v>
@@ -3667,7 +3671,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2387.0079655484001</v>
+        <v>2576.0289902167801</v>
       </c>
       <c r="C75">
         <v>2668.4736532684601</v>
@@ -3678,7 +3682,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2447.4087976339601</v>
+        <v>2558.7511149371198</v>
       </c>
       <c r="C76">
         <v>4482.6606333187201</v>
@@ -3689,7 +3693,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2394.2723135134902</v>
+        <v>2617.2104716126901</v>
       </c>
       <c r="C77">
         <v>1195.64582050632</v>
@@ -3700,7 +3704,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2357.3950115195798</v>
+        <v>2330.4859325851498</v>
       </c>
       <c r="C78">
         <v>3908.8316227482501</v>
@@ -3711,7 +3715,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2473.5173575096901</v>
+        <v>2693.55982755573</v>
       </c>
       <c r="C79">
         <v>4533.7742028964303</v>
@@ -3722,7 +3726,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2668.93616318057</v>
+        <v>2386.8006385683002</v>
       </c>
       <c r="C80">
         <v>2699.60228954484</v>
@@ -3733,7 +3737,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2482.3698569614899</v>
+        <v>2297.47455562499</v>
       </c>
       <c r="C81">
         <v>3695.0354162318899</v>
@@ -3744,7 +3748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2803.3185467071698</v>
+        <v>2551.9729001283799</v>
       </c>
       <c r="C82">
         <v>3736.5699279832202</v>
@@ -3755,7 +3759,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2730.8363626293199</v>
+        <v>2456.0365185012502</v>
       </c>
       <c r="C83">
         <v>3960.3770310987702</v>
@@ -3766,7 +3770,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2592.71694422879</v>
+        <v>2587.09157549672</v>
       </c>
       <c r="C84">
         <v>4256.00927070138</v>
@@ -3777,7 +3781,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2625.8039897280601</v>
+        <v>2517.3394413568899</v>
       </c>
       <c r="C85">
         <v>3922.9552421472499</v>
@@ -3788,7 +3792,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2650.1044511444102</v>
+        <v>2571.7427344534999</v>
       </c>
       <c r="C86">
         <v>3588.5989042251599</v>
@@ -3799,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2570.13923925876</v>
+        <v>2629.9278488475102</v>
       </c>
       <c r="C87">
         <v>4177.5113101201596</v>
@@ -3810,7 +3814,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2346.3822699297002</v>
+        <v>2478.9917198165599</v>
       </c>
       <c r="C88">
         <v>2633.5839918773599</v>
@@ -3821,7 +3825,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2415.4721741153699</v>
+        <v>2412.6672415705598</v>
       </c>
       <c r="C89">
         <v>4508.2452764359896</v>
@@ -3832,7 +3836,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2655.5111475845201</v>
+        <v>2686.3378081208102</v>
       </c>
       <c r="C90">
         <v>4008.3065524425101</v>
@@ -3843,7 +3847,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2603.1649443394999</v>
+        <v>2336.6973524412701</v>
       </c>
       <c r="C91">
         <v>4545.5496487399396</v>
@@ -3854,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2785.1817393024098</v>
+        <v>2609.2029362768099</v>
       </c>
       <c r="C92">
         <v>2603.4138651878302</v>
@@ -3865,7 +3869,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2581.6509565572101</v>
+        <v>2632.4844197182601</v>
       </c>
       <c r="C93">
         <v>3671.3008000811201</v>
@@ -3876,7 +3880,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2682.9184972008102</v>
+        <v>2494.6129028273699</v>
       </c>
       <c r="C94">
         <v>3758.8454455030601</v>
@@ -3887,7 +3891,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2338.5234880974099</v>
+        <v>2675.33177198662</v>
       </c>
       <c r="C95">
         <v>4350.2569256756997</v>
@@ -3898,7 +3902,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2525.1625152012398</v>
+        <v>2525.0783133141299</v>
       </c>
       <c r="C96">
         <v>3700.3003047543698</v>
@@ -3909,7 +3913,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2687.8784687564498</v>
+        <v>2494.3168902582302</v>
       </c>
       <c r="C97">
         <v>3820.91829176898</v>
@@ -3920,7 +3924,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2778.2208056412301</v>
+        <v>2665.5897094874499</v>
       </c>
       <c r="C98">
         <v>1186.1485078962501</v>
@@ -3931,7 +3935,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2552.5032904925001</v>
+        <v>2447.7302771787699</v>
       </c>
       <c r="C99">
         <v>3798.1017400403398</v>
@@ -3942,10 +3946,1183 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2497.7873459705802</v>
+        <v>2350.53069626662</v>
       </c>
       <c r="C100">
         <v>4019.4548884351202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>751.86999999998602</v>
+      </c>
+      <c r="C1">
+        <v>1813.22000000003</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1572.6000000000199</v>
+      </c>
+      <c r="C2">
+        <v>852.84999999998502</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1565.22000000002</v>
+      </c>
+      <c r="C3">
+        <v>1845.96000000003</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>1267.2060000000079</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(C:C)</f>
+        <v>1532.3311000000149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1546.6000000000199</v>
+      </c>
+      <c r="C4">
+        <v>1760.8880000000199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>STDEV(B:B)</f>
+        <v>389.19704582745794</v>
+      </c>
+      <c r="G4">
+        <f>STDEV(C:C)</f>
+        <v>455.25325243791167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1575.31000000002</v>
+      </c>
+      <c r="C5">
+        <v>1829.8700000000299</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>MIN(B:B)</f>
+        <v>718.01999999998702</v>
+      </c>
+      <c r="G5">
+        <f>MIN(C:C)</f>
+        <v>-83.009999999998499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1595.97000000002</v>
+      </c>
+      <c r="C6">
+        <v>1842.1200000000299</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>MAX(B:B)</f>
+        <v>1595.97000000002</v>
+      </c>
+      <c r="G6">
+        <f>MAX(C:C)</f>
+        <v>1861.80000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>748.21999999998604</v>
+      </c>
+      <c r="C7">
+        <v>851.47999999998501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>759.269999999986</v>
+      </c>
+      <c r="C8">
+        <v>1806.2180000000301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>752.93999999998596</v>
+      </c>
+      <c r="C9">
+        <v>1779.54000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1530.1300000000199</v>
+      </c>
+      <c r="C10">
+        <v>1759.79000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>745.639999999986</v>
+      </c>
+      <c r="C11">
+        <v>844.76999999998498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1564.31000000002</v>
+      </c>
+      <c r="C12">
+        <v>1821.22000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>764.40999999998496</v>
+      </c>
+      <c r="C13">
+        <v>1832.4500000000301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1496.8400000000199</v>
+      </c>
+      <c r="C14">
+        <v>1820.53000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1586.1100000000199</v>
+      </c>
+      <c r="C15">
+        <v>1706.5650000000201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1585.8200000000199</v>
+      </c>
+      <c r="C16">
+        <v>1764.1200000000199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1463.2000000000201</v>
+      </c>
+      <c r="C17">
+        <v>1715.3700000000199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1585.3800000000199</v>
+      </c>
+      <c r="C18">
+        <v>1827.73000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1548.1000000000199</v>
+      </c>
+      <c r="C19">
+        <v>1847.77000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1529.8400000000199</v>
+      </c>
+      <c r="C20">
+        <v>870.04999999998495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1536.9400000000201</v>
+      </c>
+      <c r="C21">
+        <v>818.91999999998598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>765.34999999998502</v>
+      </c>
+      <c r="C22">
+        <v>1760.24000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>761.78999999998496</v>
+      </c>
+      <c r="C23">
+        <v>1827.8400000000299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>750.09999999998604</v>
+      </c>
+      <c r="C24">
+        <v>1838.9500000000301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1583.8200000000199</v>
+      </c>
+      <c r="C25">
+        <v>1781.2000000000201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1561.53000000002</v>
+      </c>
+      <c r="C26">
+        <v>1796.2000000000201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>759.08999999998605</v>
+      </c>
+      <c r="C27">
+        <v>839.65999999998496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1583.1300000000199</v>
+      </c>
+      <c r="C28">
+        <v>870.81999999998504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>761.34999999998604</v>
+      </c>
+      <c r="C29">
+        <v>860.77999999998497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1553.6300000000199</v>
+      </c>
+      <c r="C30">
+        <v>1849.02000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1536.4300000000201</v>
+      </c>
+      <c r="C31">
+        <v>1641.3700000000199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>734.99999999998602</v>
+      </c>
+      <c r="C32">
+        <v>1853.02000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1541.1400000000201</v>
+      </c>
+      <c r="C33">
+        <v>865.71999999998502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1576.1000000000199</v>
+      </c>
+      <c r="C34">
+        <v>1830.1400000000201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1548.75000000002</v>
+      </c>
+      <c r="C35">
+        <v>1826.6000000000299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1575.3400000000199</v>
+      </c>
+      <c r="C36">
+        <v>1861.80000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1587.47000000002</v>
+      </c>
+      <c r="C37">
+        <v>879.03999999998405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1557.29000000002</v>
+      </c>
+      <c r="C38">
+        <v>1835.9200000000301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>738.33999999998696</v>
+      </c>
+      <c r="C39">
+        <v>1833.3300000000299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1570.8800000000199</v>
+      </c>
+      <c r="C40">
+        <v>882.34999999998399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1538.99000000002</v>
+      </c>
+      <c r="C41">
+        <v>1787.3900000000201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1557.81000000002</v>
+      </c>
+      <c r="C42">
+        <v>886.08999999998503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1567.50000000002</v>
+      </c>
+      <c r="C43">
+        <v>1834.6200000000299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>754.31999999998595</v>
+      </c>
+      <c r="C44">
+        <v>1837.0900000000299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1589.1100000000199</v>
+      </c>
+      <c r="C45">
+        <v>1826.6000000000299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>762.50999999998498</v>
+      </c>
+      <c r="C46">
+        <v>859.27999999998497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1575.3500000000199</v>
+      </c>
+      <c r="C47">
+        <v>1759.81000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>754.46999999998604</v>
+      </c>
+      <c r="C48">
+        <v>1839.7000000000301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>763.18999999998505</v>
+      </c>
+      <c r="C49">
+        <v>1810.49000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>751.85999999998603</v>
+      </c>
+      <c r="C50">
+        <v>867.16999999998495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>737.72999999998603</v>
+      </c>
+      <c r="C51">
+        <v>1827.4500000000301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1579.8800000000199</v>
+      </c>
+      <c r="C52">
+        <v>850.24999999998499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1590.48000000002</v>
+      </c>
+      <c r="C53">
+        <v>-83.009999999998499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1524.79000000002</v>
+      </c>
+      <c r="C54">
+        <v>1823.99000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1545.96000000002</v>
+      </c>
+      <c r="C55">
+        <v>878.60999999998398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1569.24000000002</v>
+      </c>
+      <c r="C56">
+        <v>863.68999999998505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1528.6900000000201</v>
+      </c>
+      <c r="C57">
+        <v>1834.2000000000301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>764.96999999998502</v>
+      </c>
+      <c r="C58">
+        <v>836.74899999998604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1580.5700000000199</v>
+      </c>
+      <c r="C59">
+        <v>879.17999999998403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1570.1500000000201</v>
+      </c>
+      <c r="C60">
+        <v>1822.3600000000299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1582.73000000002</v>
+      </c>
+      <c r="C61">
+        <v>869.37999999998499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1575.05000000002</v>
+      </c>
+      <c r="C62">
+        <v>1785.23000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>758.41999999998598</v>
+      </c>
+      <c r="C63">
+        <v>1826.03000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1574.48000000002</v>
+      </c>
+      <c r="C64">
+        <v>852.90999999998496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1493.8600000000199</v>
+      </c>
+      <c r="C65">
+        <v>1794.2000000000301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1514.47000000002</v>
+      </c>
+      <c r="C66">
+        <v>1857.75000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>758.10999999998501</v>
+      </c>
+      <c r="C67">
+        <v>1841.31000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>752.62999999998601</v>
+      </c>
+      <c r="C68">
+        <v>1855.46000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1494.80000000002</v>
+      </c>
+      <c r="C69">
+        <v>856.46999999998502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1539.6800000000201</v>
+      </c>
+      <c r="C70">
+        <v>1802.4300000000201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>746.70999999998605</v>
+      </c>
+      <c r="C71">
+        <v>1817.9400000000301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1578.96000000002</v>
+      </c>
+      <c r="C72">
+        <v>1801.2000000000201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1331.3900000000101</v>
+      </c>
+      <c r="C73">
+        <v>1806.6700000000301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>751.769999999986</v>
+      </c>
+      <c r="C74">
+        <v>1827.1900000000301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>763.07999999998594</v>
+      </c>
+      <c r="C75">
+        <v>1797.1400000000201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>765.119999999985</v>
+      </c>
+      <c r="C76">
+        <v>805.98999999998603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1592.78000000002</v>
+      </c>
+      <c r="C77">
+        <v>1801.55000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1569.56000000002</v>
+      </c>
+      <c r="C78">
+        <v>1775.8700000000199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>744.74999999998602</v>
+      </c>
+      <c r="C79">
+        <v>842.69999999998504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1584.21000000002</v>
+      </c>
+      <c r="C80">
+        <v>1623.8300000000199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1586.4300000000201</v>
+      </c>
+      <c r="C81">
+        <v>1850.9400000000301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>745.93999999998596</v>
+      </c>
+      <c r="C82">
+        <v>1746.21000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>755.12999999998601</v>
+      </c>
+      <c r="C83">
+        <v>1767.1200000000199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1528.4200000000201</v>
+      </c>
+      <c r="C84">
+        <v>864.66999999998495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1530.3200000000199</v>
+      </c>
+      <c r="C85">
+        <v>1798.01000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1571.29000000002</v>
+      </c>
+      <c r="C86">
+        <v>1853.79000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1580.51000000002</v>
+      </c>
+      <c r="C87">
+        <v>1846.51000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1569.1100000000199</v>
+      </c>
+      <c r="C88">
+        <v>1842.3600000000299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1564.5700000000199</v>
+      </c>
+      <c r="C89">
+        <v>1835.3600000000299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>718.01999999998702</v>
+      </c>
+      <c r="C90">
+        <v>1816.6600000000201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1573.6700000000201</v>
+      </c>
+      <c r="C91">
+        <v>1780.6100000000199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>764.62999999998499</v>
+      </c>
+      <c r="C92">
+        <v>872.99999999998499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>742.46999999998604</v>
+      </c>
+      <c r="C93">
+        <v>1836.46000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1585.6900000000201</v>
+      </c>
+      <c r="C94">
+        <v>1849.27000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1588.5800000000199</v>
+      </c>
+      <c r="C95">
+        <v>832.50999999998601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>737.269999999986</v>
+      </c>
+      <c r="C96">
+        <v>1756.6500000000201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>763.78999999998598</v>
+      </c>
+      <c r="C97">
+        <v>1805.72000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1572.04000000002</v>
+      </c>
+      <c r="C98">
+        <v>1839.9100000000301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>745.94999999998595</v>
+      </c>
+      <c r="C99">
+        <v>1823.1200000000299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1565.3900000000201</v>
+      </c>
+      <c r="C100">
+        <v>1785.8400000000199</v>
       </c>
     </row>
   </sheetData>

--- a/Results/run_2015-01-13/Generalization.xlsx
+++ b/Results/run_2015-01-13/Generalization.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>avg</t>
   </si>
@@ -48,10 +48,13 @@
     <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_Maze/run_821643908689472/grn_122_-29.68.grn");</t>
   </si>
   <si>
-    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_ActorCriticPendulum/run_351995723965078/grn_142_3066.5005810613216.grn");</t>
+    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_ActorCriticPendulum/run_682678625846967/grn_123_3307.894503933453.grn");</t>
   </si>
   <si>
-    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_PuddleWorld/run_411352420423668/grn_127_1602.970000000023.grn");</t>
+    <t>GRNModel grn = GRNModel.loadFromFile("/Users/cussat/Recherche/Projets/Neuromodulation/GRNRL/Results/run_2015-01-13/NMSarsa_PuddleWorld/run_602502320813601/grn_103_3395.9300000000467.grn");</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -100,8 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -110,11 +121,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,10 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -580,6 +600,17 @@
       </c>
       <c r="C7">
         <v>-156.07</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>MEDIAN(B:B)</f>
+        <v>-137.11500000000001</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(C:C)</f>
+        <v>-176.69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1618,10 +1649,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1755,6 +1787,17 @@
       <c r="C7">
         <v>-26.74</v>
       </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>MEDIAN(B:B)</f>
+        <v>-34.064999999999998</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(C:C)</f>
+        <v>-28.844999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
@@ -2781,6 +2824,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2791,34 +2835,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <sheetPr codeName="Feuil3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2649.6203517949298</v>
+        <v>2908.17328353626</v>
       </c>
       <c r="C1">
         <v>3488.9769663781699</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2587.9980230163001</v>
+        <v>3093.8891573078699</v>
       </c>
       <c r="C2">
         <v>2023.9394327013399</v>
@@ -2830,12 +2875,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2555.7293699215802</v>
+        <v>2674.4711062935498</v>
       </c>
       <c r="C3">
         <v>1962.88621374537</v>
@@ -2845,19 +2890,19 @@
       </c>
       <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>2535.1931082605829</v>
+        <v>2734.4499413317385</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C:C)</f>
         <v>3307.0592834831059</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2442.6850201078901</v>
+        <v>2807.3244631758598</v>
       </c>
       <c r="C4">
         <v>3707.05472076053</v>
@@ -2867,19 +2912,19 @@
       </c>
       <c r="F4">
         <f>STDEV(B:B)</f>
-        <v>124.23520279273269</v>
+        <v>179.9392196046856</v>
       </c>
       <c r="G4">
         <f>STDEV(C:C)</f>
         <v>1094.4737738095553</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2547.8252672881699</v>
+        <v>2660.6180677818902</v>
       </c>
       <c r="C5">
         <v>4338.4900232597001</v>
@@ -2889,19 +2934,19 @@
       </c>
       <c r="F5">
         <f>MIN(B:B)</f>
-        <v>2105.5507014234399</v>
+        <v>2209.1940047798698</v>
       </c>
       <c r="G5">
         <f>MIN(C:C)</f>
         <v>1016.59976730598</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2665.3410708074398</v>
+        <v>2454.68878325983</v>
       </c>
       <c r="C6">
         <v>3154.3332412720702</v>
@@ -2911,118 +2956,129 @@
       </c>
       <c r="F6">
         <f>MAX(B:B)</f>
-        <v>2736.9955980466798</v>
+        <v>3249.2772781068202</v>
       </c>
       <c r="G6">
         <f>MAX(C:C)</f>
         <v>4560.6487754317004</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2545.9415802702201</v>
+        <v>2726.7573194136698</v>
       </c>
       <c r="C7">
         <v>3815.8592019419498</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>MEDIAN(B:B)</f>
+        <v>2703.93476015741</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(C:C)</f>
+        <v>3751.35689600658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2711.8391976494299</v>
+        <v>3091.85917385738</v>
       </c>
       <c r="C8">
         <v>4444.6730889682603</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2566.73999328434</v>
+        <v>2848.0291657837702</v>
       </c>
       <c r="C9">
         <v>1219.5195370382801</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2691.41257688007</v>
+        <v>2977.4846568135399</v>
       </c>
       <c r="C10">
         <v>1977.39655834564</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2549.0544936472802</v>
+        <v>2678.8325759516802</v>
       </c>
       <c r="C11">
         <v>4075.8308275153599</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2703.14115520003</v>
+        <v>2768.7276082726498</v>
       </c>
       <c r="C12">
         <v>4229.8356602456497</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2472.0990574624502</v>
+        <v>2339.9239127089099</v>
       </c>
       <c r="C13">
         <v>2478.5074964025498</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2733.4027505829699</v>
+        <v>2717.7535963762898</v>
       </c>
       <c r="C14">
         <v>1897.21379970973</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2590.8704889404598</v>
+        <v>2645.2943632725801</v>
       </c>
       <c r="C15">
         <v>3807.7646038800999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2718.3405709696799</v>
+        <v>2780.48205781859</v>
       </c>
       <c r="C16">
         <v>4320.37291677134</v>
@@ -3033,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2539.7959843316198</v>
+        <v>2742.26792014286</v>
       </c>
       <c r="C17">
         <v>2439.00736253491</v>
@@ -3044,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2659.9870933810498</v>
+        <v>2685.9861787252798</v>
       </c>
       <c r="C18">
         <v>3103.0910900788999</v>
@@ -3055,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2609.5584328772902</v>
+        <v>2655.4173793441701</v>
       </c>
       <c r="C19">
         <v>1398.6100302181901</v>
@@ -3066,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2628.5226401045902</v>
+        <v>2583.4060595009</v>
       </c>
       <c r="C20">
         <v>3185.5061353548599</v>
@@ -3077,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2677.4039026313499</v>
+        <v>2598.0885843371698</v>
       </c>
       <c r="C21">
         <v>1832.3108663292701</v>
@@ -3088,7 +3144,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2626.3030403133498</v>
+        <v>2677.1842339141299</v>
       </c>
       <c r="C22">
         <v>2329.5806548463802</v>
@@ -3099,7 +3155,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2395.1063490363399</v>
+        <v>2709.9311351647998</v>
       </c>
       <c r="C23">
         <v>1042.9258975846401</v>
@@ -3110,7 +3166,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2590.47257436979</v>
+        <v>2760.1431927230801</v>
       </c>
       <c r="C24">
         <v>2197.5673143047102</v>
@@ -3121,7 +3177,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2431.6165065013602</v>
+        <v>2633.1535438161</v>
       </c>
       <c r="C25">
         <v>4305.7752097447701</v>
@@ -3132,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2401.3185208242699</v>
+        <v>2689.0020864642902</v>
       </c>
       <c r="C26">
         <v>4286.7190551683998</v>
@@ -3143,7 +3199,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2631.6030190884899</v>
+        <v>2539.55652237503</v>
       </c>
       <c r="C27">
         <v>1016.59976730598</v>
@@ -3154,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2273.9215854835302</v>
+        <v>3108.1775961086801</v>
       </c>
       <c r="C28">
         <v>3922.33289972391</v>
@@ -3165,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2559.7693030758801</v>
+        <v>2747.9958523268901</v>
       </c>
       <c r="C29">
         <v>3657.83235594392</v>
@@ -3176,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2218.8133472269101</v>
+        <v>2972.0075296653999</v>
       </c>
       <c r="C30">
         <v>4506.0793397534899</v>
@@ -3187,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2656.0339321413699</v>
+        <v>2512.2287841924799</v>
       </c>
       <c r="C31">
         <v>4146.3570163265504</v>
@@ -3198,7 +3254,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2572.5930578934999</v>
+        <v>2719.99693794418</v>
       </c>
       <c r="C32">
         <v>4321.4784960344696</v>
@@ -3209,7 +3265,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2480.3983488071299</v>
+        <v>3070.5372939374201</v>
       </c>
       <c r="C33">
         <v>1749.26460930036</v>
@@ -3220,7 +3276,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2450.0154413448699</v>
+        <v>2209.1940047798698</v>
       </c>
       <c r="C34">
         <v>1969.0046586870899</v>
@@ -3231,7 +3287,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2422.4884538534302</v>
+        <v>2603.4461447178201</v>
       </c>
       <c r="C35">
         <v>4059.9588047068301</v>
@@ -3242,7 +3298,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2481.0330343425599</v>
+        <v>2721.5765470280699</v>
       </c>
       <c r="C36">
         <v>1827.7377242228699</v>
@@ -3253,7 +3309,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2667.1563810276498</v>
+        <v>3078.0541445403101</v>
       </c>
       <c r="C37">
         <v>2285.9550195655002</v>
@@ -3264,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2611.5427174972401</v>
+        <v>3078.1541311845999</v>
       </c>
       <c r="C38">
         <v>3638.94845614425</v>
@@ -3275,7 +3331,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2414.35720327851</v>
+        <v>2669.4921785121901</v>
       </c>
       <c r="C39">
         <v>3014.8213317498198</v>
@@ -3286,7 +3342,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2311.9457843100099</v>
+        <v>2647.76294926018</v>
       </c>
       <c r="C40">
         <v>1975.64003299773</v>
@@ -3297,7 +3353,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2517.2742225818001</v>
+        <v>2777.1817878912402</v>
       </c>
       <c r="C41">
         <v>1312.72325126698</v>
@@ -3308,7 +3364,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2542.3694992416599</v>
+        <v>2770.0401733992198</v>
       </c>
       <c r="C42">
         <v>4242.9795925968701</v>
@@ -3319,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2643.3456118490199</v>
+        <v>2817.2178392440101</v>
       </c>
       <c r="C43">
         <v>2389.8022697081401</v>
@@ -3330,7 +3386,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2658.4120306344298</v>
+        <v>2688.7362279917802</v>
       </c>
       <c r="C44">
         <v>4533.9373265455997</v>
@@ -3341,7 +3397,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2677.0563760550499</v>
+        <v>2605.7191157796001</v>
       </c>
       <c r="C45">
         <v>2310.5912255827402</v>
@@ -3352,7 +3408,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2550.8623798087401</v>
+        <v>2489.96792767236</v>
       </c>
       <c r="C46">
         <v>1113.24935876934</v>
@@ -3363,7 +3419,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2604.654301775</v>
+        <v>2597.61754388298</v>
       </c>
       <c r="C47">
         <v>4249.0050609627497</v>
@@ -3374,7 +3430,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2581.6729289382401</v>
+        <v>2681.7043821943998</v>
       </c>
       <c r="C48">
         <v>1241.42840343998</v>
@@ -3385,7 +3441,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2625.16935959179</v>
+        <v>2649.9915745834101</v>
       </c>
       <c r="C49">
         <v>3743.8683465100999</v>
@@ -3396,7 +3452,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2685.23112094629</v>
+        <v>3249.2772781068202</v>
       </c>
       <c r="C50">
         <v>4241.6063763520497</v>
@@ -3407,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2105.5507014234399</v>
+        <v>2516.4689446570201</v>
       </c>
       <c r="C51">
         <v>4513.4551784056302</v>
@@ -3418,7 +3474,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2451.26999383049</v>
+        <v>2737.1142520360399</v>
       </c>
       <c r="C52">
         <v>4020.31563938095</v>
@@ -3429,7 +3485,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2327.89862967104</v>
+        <v>2730.7258766820801</v>
       </c>
       <c r="C53">
         <v>4004.12363653185</v>
@@ -3440,7 +3496,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2317.25751037379</v>
+        <v>2688.22577486009</v>
       </c>
       <c r="C54">
         <v>4015.10791483701</v>
@@ -3451,7 +3507,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2505.3279591169398</v>
+        <v>2731.2295695354801</v>
       </c>
       <c r="C55">
         <v>4162.2646019996</v>
@@ -3462,7 +3518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2497.4908185849199</v>
+        <v>2510.49105937585</v>
       </c>
       <c r="C56">
         <v>4200.7161869704696</v>
@@ -3473,7 +3529,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2621.8513752037402</v>
+        <v>3010.3125827183399</v>
       </c>
       <c r="C57">
         <v>4476.4400122862298</v>
@@ -3484,7 +3540,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2521.3606853054198</v>
+        <v>2918.3157591265199</v>
       </c>
       <c r="C58">
         <v>4150.0991322948903</v>
@@ -3495,7 +3551,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2736.9955980466798</v>
+        <v>2931.7335865231898</v>
       </c>
       <c r="C59">
         <v>3578.9671436741801</v>
@@ -3506,7 +3562,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2426.4141884906498</v>
+        <v>2719.6777270770099</v>
       </c>
       <c r="C60">
         <v>4113.2694904850096</v>
@@ -3517,7 +3573,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2483.69163456672</v>
+        <v>2620.63269452341</v>
       </c>
       <c r="C61">
         <v>4328.4362230562001</v>
@@ -3528,7 +3584,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2432.51535020949</v>
+        <v>2685.6552552753201</v>
       </c>
       <c r="C62">
         <v>3849.36455292659</v>
@@ -3539,7 +3595,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2602.1999120663399</v>
+        <v>2726.0952477222399</v>
       </c>
       <c r="C63">
         <v>4179.1754415609203</v>
@@ -3550,7 +3606,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2486.0661148520799</v>
+        <v>2629.7211675322301</v>
       </c>
       <c r="C64">
         <v>3969.2791499785299</v>
@@ -3561,7 +3617,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2712.74269226552</v>
+        <v>2658.88962338692</v>
       </c>
       <c r="C65">
         <v>1184.5554287913001</v>
@@ -3572,7 +3628,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2502.9547476676998</v>
+        <v>2489.14157805896</v>
       </c>
       <c r="C66">
         <v>4560.6487754317004</v>
@@ -3583,7 +3639,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2394.9322101323</v>
+        <v>2950.8168282335901</v>
       </c>
       <c r="C67">
         <v>1628.49277659523</v>
@@ -3594,7 +3650,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2619.2898502759299</v>
+        <v>2767.9911600765099</v>
       </c>
       <c r="C68">
         <v>3932.9265794891298</v>
@@ -3605,7 +3661,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2572.63467209499</v>
+        <v>3092.9555809599201</v>
       </c>
       <c r="C69">
         <v>3439.1218718711698</v>
@@ -3616,7 +3672,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2514.7554931203399</v>
+        <v>2747.6203434222998</v>
       </c>
       <c r="C70">
         <v>2672.2917909602402</v>
@@ -3627,7 +3683,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2457.2760664437301</v>
+        <v>3135.6062545353302</v>
       </c>
       <c r="C71">
         <v>4508.2064589653201</v>
@@ -3638,7 +3694,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2649.27578446493</v>
+        <v>2575.5271531752101</v>
       </c>
       <c r="C72">
         <v>1950.10066128987</v>
@@ -3649,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2412.4215297045798</v>
+        <v>2673.08492616273</v>
       </c>
       <c r="C73">
         <v>3002.6648557906801</v>
@@ -3660,7 +3716,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2453.2972660106602</v>
+        <v>2611.7447806886598</v>
       </c>
       <c r="C74">
         <v>4300.4836518100401</v>
@@ -3671,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2576.0289902167801</v>
+        <v>2642.9491746369699</v>
       </c>
       <c r="C75">
         <v>2668.4736532684601</v>
@@ -3682,7 +3738,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2558.7511149371198</v>
+        <v>2963.3456108887399</v>
       </c>
       <c r="C76">
         <v>4482.6606333187201</v>
@@ -3693,7 +3749,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2617.2104716126901</v>
+        <v>2754.9934730988098</v>
       </c>
       <c r="C77">
         <v>1195.64582050632</v>
@@ -3704,7 +3760,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2330.4859325851498</v>
+        <v>2738.0694088212799</v>
       </c>
       <c r="C78">
         <v>3908.8316227482501</v>
@@ -3715,7 +3771,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2693.55982755573</v>
+        <v>2602.4391093333302</v>
       </c>
       <c r="C79">
         <v>4533.7742028964303</v>
@@ -3726,7 +3782,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2386.8006385683002</v>
+        <v>2812.3449606971399</v>
       </c>
       <c r="C80">
         <v>2699.60228954484</v>
@@ -3737,7 +3793,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2297.47455562499</v>
+        <v>2779.78240814113</v>
       </c>
       <c r="C81">
         <v>3695.0354162318899</v>
@@ -3748,7 +3804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2551.9729001283799</v>
+        <v>2651.3639820948601</v>
       </c>
       <c r="C82">
         <v>3736.5699279832202</v>
@@ -3759,7 +3815,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2456.0365185012502</v>
+        <v>2601.0009073190199</v>
       </c>
       <c r="C83">
         <v>3960.3770310987702</v>
@@ -3770,7 +3826,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2587.09157549672</v>
+        <v>2714.7114818957798</v>
       </c>
       <c r="C84">
         <v>4256.00927070138</v>
@@ -3781,7 +3837,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2517.3394413568899</v>
+        <v>2810.4433362585601</v>
       </c>
       <c r="C85">
         <v>3922.9552421472499</v>
@@ -3792,7 +3848,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2571.7427344534999</v>
+        <v>2585.49421693256</v>
       </c>
       <c r="C86">
         <v>3588.5989042251599</v>
@@ -3803,7 +3859,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2629.9278488475102</v>
+        <v>2735.2681514770602</v>
       </c>
       <c r="C87">
         <v>4177.5113101201596</v>
@@ -3814,7 +3870,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2478.9917198165599</v>
+        <v>2658.2409156275899</v>
       </c>
       <c r="C88">
         <v>2633.5839918773599</v>
@@ -3825,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2412.6672415705598</v>
+        <v>2569.9905465785</v>
       </c>
       <c r="C89">
         <v>4508.2452764359896</v>
@@ -3836,7 +3892,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2686.3378081208102</v>
+        <v>2697.9383851500202</v>
       </c>
       <c r="C90">
         <v>4008.3065524425101</v>
@@ -3847,7 +3903,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2336.6973524412701</v>
+        <v>2523.1559705238901</v>
       </c>
       <c r="C91">
         <v>4545.5496487399396</v>
@@ -3858,7 +3914,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2609.2029362768099</v>
+        <v>2774.0353461916702</v>
       </c>
       <c r="C92">
         <v>2603.4138651878302</v>
@@ -3869,7 +3925,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2632.4844197182601</v>
+        <v>2660.4398663670599</v>
       </c>
       <c r="C93">
         <v>3671.3008000811201</v>
@@ -3880,7 +3936,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2494.6129028273699</v>
+        <v>3134.0402855785501</v>
       </c>
       <c r="C94">
         <v>3758.8454455030601</v>
@@ -3891,7 +3947,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2675.33177198662</v>
+        <v>2646.9976027354701</v>
       </c>
       <c r="C95">
         <v>4350.2569256756997</v>
@@ -3902,7 +3958,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2525.0783133141299</v>
+        <v>2836.50402180743</v>
       </c>
       <c r="C96">
         <v>3700.3003047543698</v>
@@ -3913,7 +3969,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2494.3168902582302</v>
+        <v>2561.96764997837</v>
       </c>
       <c r="C97">
         <v>3820.91829176898</v>
@@ -3924,7 +3980,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2665.5897094874499</v>
+        <v>2900.2559230932802</v>
       </c>
       <c r="C98">
         <v>1186.1485078962501</v>
@@ -3935,7 +3991,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2447.7302771787699</v>
+        <v>2681.1298151900801</v>
       </c>
       <c r="C99">
         <v>3798.1017400403398</v>
@@ -3946,7 +4002,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2350.53069626662</v>
+        <v>2633.7897833356101</v>
       </c>
       <c r="C100">
         <v>4019.4548884351202</v>
@@ -3964,10 +4020,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3977,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>751.86999999998602</v>
+        <v>1073.9200000000101</v>
       </c>
       <c r="C1">
         <v>1813.22000000003</v>
@@ -3991,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1572.6000000000199</v>
+        <v>718.70999999998696</v>
       </c>
       <c r="C2">
         <v>852.84999999998502</v>
@@ -4008,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1565.22000000002</v>
+        <v>1458.3300000000099</v>
       </c>
       <c r="C3">
         <v>1845.96000000003</v>
@@ -4018,7 +4075,7 @@
       </c>
       <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>1267.2060000000079</v>
+        <v>1422.4863000000096</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C:C)</f>
@@ -4030,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1546.6000000000199</v>
+        <v>1318.0600000000099</v>
       </c>
       <c r="C4">
         <v>1760.8880000000199</v>
@@ -4040,7 +4097,7 @@
       </c>
       <c r="F4">
         <f>STDEV(B:B)</f>
-        <v>389.19704582745794</v>
+        <v>625.56772667869222</v>
       </c>
       <c r="G4">
         <f>STDEV(C:C)</f>
@@ -4052,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1575.31000000002</v>
+        <v>1538.8400000000199</v>
       </c>
       <c r="C5">
         <v>1829.8700000000299</v>
@@ -4062,7 +4119,7 @@
       </c>
       <c r="F5">
         <f>MIN(B:B)</f>
-        <v>718.01999999998702</v>
+        <v>628.02999999998895</v>
       </c>
       <c r="G5">
         <f>MIN(C:C)</f>
@@ -4074,7 +4131,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1595.97000000002</v>
+        <v>692.42999999998699</v>
       </c>
       <c r="C6">
         <v>1842.1200000000299</v>
@@ -4084,7 +4141,7 @@
       </c>
       <c r="F6">
         <f>MAX(B:B)</f>
-        <v>1595.97000000002</v>
+        <v>3347.3800000000401</v>
       </c>
       <c r="G6">
         <f>MAX(C:C)</f>
@@ -4096,10 +4153,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>748.21999999998604</v>
+        <v>1481.3500000000099</v>
       </c>
       <c r="C7">
         <v>851.47999999998501</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>MEDIAN(B:B)</f>
+        <v>1464.3150000000101</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(C:C)</f>
+        <v>1797.5750000000201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4107,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>759.269999999986</v>
+        <v>1388.28000000001</v>
       </c>
       <c r="C8">
         <v>1806.2180000000301</v>
@@ -4118,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>752.93999999998596</v>
+        <v>738.85999999998603</v>
       </c>
       <c r="C9">
         <v>1779.54000000002</v>
@@ -4129,7 +4197,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1530.1300000000199</v>
+        <v>723.639999999986</v>
       </c>
       <c r="C10">
         <v>1759.79000000002</v>
@@ -4140,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>745.639999999986</v>
+        <v>729.519999999986</v>
       </c>
       <c r="C11">
         <v>844.76999999998498</v>
@@ -4151,7 +4219,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1564.31000000002</v>
+        <v>742.58999999998605</v>
       </c>
       <c r="C12">
         <v>1821.22000000003</v>
@@ -4162,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>764.40999999998496</v>
+        <v>1453.4100000000101</v>
       </c>
       <c r="C13">
         <v>1832.4500000000301</v>
@@ -4173,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1496.8400000000199</v>
+        <v>2170.54000000003</v>
       </c>
       <c r="C14">
         <v>1820.53000000002</v>
@@ -4184,7 +4252,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1586.1100000000199</v>
+        <v>1456.6400000000101</v>
       </c>
       <c r="C15">
         <v>1706.5650000000201</v>
@@ -4195,7 +4263,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1585.8200000000199</v>
+        <v>989.28000000000895</v>
       </c>
       <c r="C16">
         <v>1764.1200000000199</v>
@@ -4206,7 +4274,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1463.2000000000201</v>
+        <v>2635.1600000000399</v>
       </c>
       <c r="C17">
         <v>1715.3700000000199</v>
@@ -4217,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1585.3800000000199</v>
+        <v>1518.4100000000101</v>
       </c>
       <c r="C18">
         <v>1827.73000000003</v>
@@ -4228,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1548.1000000000199</v>
+        <v>1470.22000000001</v>
       </c>
       <c r="C19">
         <v>1847.77000000003</v>
@@ -4239,7 +4307,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1529.8400000000199</v>
+        <v>3189.56000000004</v>
       </c>
       <c r="C20">
         <v>870.04999999998495</v>
@@ -4250,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1536.9400000000201</v>
+        <v>745.21999999998604</v>
       </c>
       <c r="C21">
         <v>818.91999999998598</v>
@@ -4261,7 +4329,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>765.34999999998502</v>
+        <v>747.16999999998598</v>
       </c>
       <c r="C22">
         <v>1760.24000000002</v>
@@ -4272,7 +4340,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>761.78999999998496</v>
+        <v>1510.8200000000099</v>
       </c>
       <c r="C23">
         <v>1827.8400000000299</v>
@@ -4283,7 +4351,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>750.09999999998604</v>
+        <v>1137.6400000000101</v>
       </c>
       <c r="C24">
         <v>1838.9500000000301</v>
@@ -4294,7 +4362,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1583.8200000000199</v>
+        <v>1529.6900000000101</v>
       </c>
       <c r="C25">
         <v>1781.2000000000201</v>
@@ -4305,7 +4373,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1561.53000000002</v>
+        <v>1506.24000000001</v>
       </c>
       <c r="C26">
         <v>1796.2000000000201</v>
@@ -4316,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>759.08999999998605</v>
+        <v>1532.98000000002</v>
       </c>
       <c r="C27">
         <v>839.65999999998496</v>
@@ -4327,7 +4395,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1583.1300000000199</v>
+        <v>1024.9200000000101</v>
       </c>
       <c r="C28">
         <v>870.81999999998504</v>
@@ -4338,7 +4406,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>761.34999999998604</v>
+        <v>1484.28000000002</v>
       </c>
       <c r="C29">
         <v>860.77999999998497</v>
@@ -4349,7 +4417,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1553.6300000000199</v>
+        <v>1531.95000000001</v>
       </c>
       <c r="C30">
         <v>1849.02000000003</v>
@@ -4360,7 +4428,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1536.4300000000201</v>
+        <v>1478.26000000001</v>
       </c>
       <c r="C31">
         <v>1641.3700000000199</v>
@@ -4371,7 +4439,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>734.99999999998602</v>
+        <v>1526.76000000002</v>
       </c>
       <c r="C32">
         <v>1853.02000000003</v>
@@ -4382,7 +4450,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1541.1400000000201</v>
+        <v>720.72999999998694</v>
       </c>
       <c r="C33">
         <v>865.71999999998502</v>
@@ -4393,7 +4461,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1576.1000000000199</v>
+        <v>724.36999999998602</v>
       </c>
       <c r="C34">
         <v>1830.1400000000201</v>
@@ -4404,7 +4472,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1548.75000000002</v>
+        <v>628.02999999998895</v>
       </c>
       <c r="C35">
         <v>1826.6000000000299</v>
@@ -4415,7 +4483,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1575.3400000000199</v>
+        <v>1458.4100000000101</v>
       </c>
       <c r="C36">
         <v>1861.80000000003</v>
@@ -4426,7 +4494,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1587.47000000002</v>
+        <v>1424.0700000000099</v>
       </c>
       <c r="C37">
         <v>879.03999999998405</v>
@@ -4437,7 +4505,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1557.29000000002</v>
+        <v>1524.4400000000101</v>
       </c>
       <c r="C38">
         <v>1835.9200000000301</v>
@@ -4448,7 +4516,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>738.33999999998696</v>
+        <v>700.12999999998704</v>
       </c>
       <c r="C39">
         <v>1833.3300000000299</v>
@@ -4459,7 +4527,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1570.8800000000199</v>
+        <v>1535.24000000002</v>
       </c>
       <c r="C40">
         <v>882.34999999998399</v>
@@ -4470,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1538.99000000002</v>
+        <v>1698.5900000000199</v>
       </c>
       <c r="C41">
         <v>1787.3900000000201</v>
@@ -4481,7 +4549,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1557.81000000002</v>
+        <v>1055.20000000001</v>
       </c>
       <c r="C42">
         <v>886.08999999998503</v>
@@ -4492,7 +4560,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1567.50000000002</v>
+        <v>1489.3500000000199</v>
       </c>
       <c r="C43">
         <v>1834.6200000000299</v>
@@ -4503,7 +4571,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>754.31999999998595</v>
+        <v>2016.6600000000301</v>
       </c>
       <c r="C44">
         <v>1837.0900000000299</v>
@@ -4514,7 +4582,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1589.1100000000199</v>
+        <v>1546.5700000000199</v>
       </c>
       <c r="C45">
         <v>1826.6000000000299</v>
@@ -4525,7 +4593,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>762.50999999998498</v>
+        <v>731.55999999998596</v>
       </c>
       <c r="C46">
         <v>859.27999999998497</v>
@@ -4536,7 +4604,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1575.3500000000199</v>
+        <v>738.24999999998602</v>
       </c>
       <c r="C47">
         <v>1759.81000000002</v>
@@ -4547,7 +4615,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>754.46999999998604</v>
+        <v>1495.1900000000101</v>
       </c>
       <c r="C48">
         <v>1839.7000000000301</v>
@@ -4558,7 +4626,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>763.18999999998505</v>
+        <v>1519.01000000001</v>
       </c>
       <c r="C49">
         <v>1810.49000000002</v>
@@ -4569,7 +4637,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>751.85999999998603</v>
+        <v>1547.0800000000199</v>
       </c>
       <c r="C50">
         <v>867.16999999998495</v>
@@ -4580,7 +4648,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>737.72999999998603</v>
+        <v>723.10999999998603</v>
       </c>
       <c r="C51">
         <v>1827.4500000000301</v>
@@ -4591,7 +4659,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1579.8800000000199</v>
+        <v>745.48999999998603</v>
       </c>
       <c r="C52">
         <v>850.24999999998499</v>
@@ -4602,7 +4670,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1590.48000000002</v>
+        <v>709.59999999998695</v>
       </c>
       <c r="C53">
         <v>-83.009999999998499</v>
@@ -4613,7 +4681,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1524.79000000002</v>
+        <v>709.39999999998702</v>
       </c>
       <c r="C54">
         <v>1823.99000000002</v>
@@ -4624,7 +4692,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1545.96000000002</v>
+        <v>1510.5700000000199</v>
       </c>
       <c r="C55">
         <v>878.60999999998398</v>
@@ -4635,7 +4703,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1569.24000000002</v>
+        <v>1503.96000000001</v>
       </c>
       <c r="C56">
         <v>863.68999999998505</v>
@@ -4646,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1528.6900000000201</v>
+        <v>1340.6700000000101</v>
       </c>
       <c r="C57">
         <v>1834.2000000000301</v>
@@ -4657,7 +4725,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>764.96999999998502</v>
+        <v>1357.8100000000099</v>
       </c>
       <c r="C58">
         <v>836.74899999998604</v>
@@ -4668,7 +4736,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1580.5700000000199</v>
+        <v>1534.8800000000199</v>
       </c>
       <c r="C59">
         <v>879.17999999998403</v>
@@ -4679,7 +4747,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1570.1500000000201</v>
+        <v>2603.06000000003</v>
       </c>
       <c r="C60">
         <v>1822.3600000000299</v>
@@ -4690,7 +4758,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1582.73000000002</v>
+        <v>3283.1300000000401</v>
       </c>
       <c r="C61">
         <v>869.37999999998499</v>
@@ -4701,7 +4769,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1575.05000000002</v>
+        <v>1432.5700000000099</v>
       </c>
       <c r="C62">
         <v>1785.23000000002</v>
@@ -4712,7 +4780,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>758.41999999998598</v>
+        <v>1529.79000000002</v>
       </c>
       <c r="C63">
         <v>1826.03000000003</v>
@@ -4723,7 +4791,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1574.48000000002</v>
+        <v>720.27999999998701</v>
       </c>
       <c r="C64">
         <v>852.90999999998496</v>
@@ -4734,7 +4802,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1493.8600000000199</v>
+        <v>1505.6800000000101</v>
       </c>
       <c r="C65">
         <v>1794.2000000000301</v>
@@ -4745,7 +4813,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1514.47000000002</v>
+        <v>3347.3800000000401</v>
       </c>
       <c r="C66">
         <v>1857.75000000003</v>
@@ -4756,7 +4824,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>758.10999999998501</v>
+        <v>1518.8400000000099</v>
       </c>
       <c r="C67">
         <v>1841.31000000003</v>
@@ -4767,7 +4835,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>752.62999999998601</v>
+        <v>1390.52000000001</v>
       </c>
       <c r="C68">
         <v>1855.46000000003</v>
@@ -4778,7 +4846,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1494.80000000002</v>
+        <v>1541.4100000000201</v>
       </c>
       <c r="C69">
         <v>856.46999999998502</v>
@@ -4789,7 +4857,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1539.6800000000201</v>
+        <v>707.20999999998696</v>
       </c>
       <c r="C70">
         <v>1802.4300000000201</v>
@@ -4800,7 +4868,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>746.70999999998605</v>
+        <v>1543.96000000002</v>
       </c>
       <c r="C71">
         <v>1817.9400000000301</v>
@@ -4811,7 +4879,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1578.96000000002</v>
+        <v>733.22999999998694</v>
       </c>
       <c r="C72">
         <v>1801.2000000000201</v>
@@ -4822,7 +4890,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1331.3900000000101</v>
+        <v>1345.3400000000099</v>
       </c>
       <c r="C73">
         <v>1806.6700000000301</v>
@@ -4833,7 +4901,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>751.769999999986</v>
+        <v>1373.79000000001</v>
       </c>
       <c r="C74">
         <v>1827.1900000000301</v>
@@ -4844,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>763.07999999998594</v>
+        <v>1318.95000000001</v>
       </c>
       <c r="C75">
         <v>1797.1400000000201</v>
@@ -4855,7 +4923,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>765.119999999985</v>
+        <v>3218.5700000000402</v>
       </c>
       <c r="C76">
         <v>805.98999999998603</v>
@@ -4866,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1592.78000000002</v>
+        <v>2515.29000000004</v>
       </c>
       <c r="C77">
         <v>1801.55000000002</v>
@@ -4877,7 +4945,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1569.56000000002</v>
+        <v>1146.71000000001</v>
       </c>
       <c r="C78">
         <v>1775.8700000000199</v>
@@ -4888,7 +4956,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>744.74999999998602</v>
+        <v>1526.6200000000199</v>
       </c>
       <c r="C79">
         <v>842.69999999998504</v>
@@ -4899,7 +4967,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1584.21000000002</v>
+        <v>1504.3300000000199</v>
       </c>
       <c r="C80">
         <v>1623.8300000000199</v>
@@ -4910,7 +4978,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1586.4300000000201</v>
+        <v>733.32999999998594</v>
       </c>
       <c r="C81">
         <v>1850.9400000000301</v>
@@ -4921,7 +4989,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>745.93999999998596</v>
+        <v>1541.3400000000199</v>
       </c>
       <c r="C82">
         <v>1746.21000000002</v>
@@ -4932,7 +5000,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>755.12999999998601</v>
+        <v>1438.9300000000101</v>
       </c>
       <c r="C83">
         <v>1767.1200000000199</v>
@@ -4943,7 +5011,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1528.4200000000201</v>
+        <v>1520.5800000000199</v>
       </c>
       <c r="C84">
         <v>864.66999999998495</v>
@@ -4954,7 +5022,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1530.3200000000199</v>
+        <v>1321.30000000001</v>
       </c>
       <c r="C85">
         <v>1798.01000000002</v>
@@ -4965,7 +5033,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1571.29000000002</v>
+        <v>720.43999999998698</v>
       </c>
       <c r="C86">
         <v>1853.79000000003</v>
@@ -4976,7 +5044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1580.51000000002</v>
+        <v>1829.6800000000201</v>
       </c>
       <c r="C87">
         <v>1846.51000000003</v>
@@ -4987,7 +5055,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1569.1100000000199</v>
+        <v>3122.3200000000402</v>
       </c>
       <c r="C88">
         <v>1842.3600000000299</v>
@@ -4998,7 +5066,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1564.5700000000199</v>
+        <v>1362.99000000001</v>
       </c>
       <c r="C89">
         <v>1835.3600000000299</v>
@@ -5009,7 +5077,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>718.01999999998702</v>
+        <v>1677.30000000002</v>
       </c>
       <c r="C90">
         <v>1816.6600000000201</v>
@@ -5020,7 +5088,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1573.6700000000201</v>
+        <v>745.56999999998595</v>
       </c>
       <c r="C91">
         <v>1780.6100000000199</v>
@@ -5031,7 +5099,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>764.62999999998499</v>
+        <v>1499.6000000000099</v>
       </c>
       <c r="C92">
         <v>872.99999999998499</v>
@@ -5042,7 +5110,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>742.46999999998604</v>
+        <v>732.15999999998598</v>
       </c>
       <c r="C93">
         <v>1836.46000000003</v>
@@ -5053,7 +5121,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1585.6900000000201</v>
+        <v>1478.9400000000101</v>
       </c>
       <c r="C94">
         <v>1849.27000000003</v>
@@ -5064,7 +5132,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1588.5800000000199</v>
+        <v>1996.71000000002</v>
       </c>
       <c r="C95">
         <v>832.50999999998601</v>
@@ -5075,7 +5143,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>737.269999999986</v>
+        <v>724.52999999998701</v>
       </c>
       <c r="C96">
         <v>1756.6500000000201</v>
@@ -5086,7 +5154,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>763.78999999998598</v>
+        <v>1514.28000000002</v>
       </c>
       <c r="C97">
         <v>1805.72000000003</v>
@@ -5097,7 +5165,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1572.04000000002</v>
+        <v>1326.76000000001</v>
       </c>
       <c r="C98">
         <v>1839.9100000000301</v>
@@ -5108,7 +5176,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>745.94999999998595</v>
+        <v>2663.23000000003</v>
       </c>
       <c r="C99">
         <v>1823.1200000000299</v>
@@ -5119,7 +5187,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1565.3900000000201</v>
+        <v>2559.9300000000399</v>
       </c>
       <c r="C100">
         <v>1785.8400000000199</v>
